--- a/Controle_Investimentos.xlsx
+++ b/Controle_Investimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaog\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC73DED-1E12-40E3-A72A-9AEE161F8655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EF0418-1CDF-4AE4-BCC3-2A996338E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="317" xr2:uid="{1B367DCB-E05C-4E80-9D88-85FDCFF35055}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="36" xr2:uid="{1B367DCB-E05C-4E80-9D88-85FDCFF35055}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -165,11 +165,11 @@
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.000;[Red]\-&quot;R$&quot;\ #,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.000;[Red]\-&quot;R$&quot;\ #,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +245,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -301,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -472,6 +488,167 @@
       </right>
       <top style="hair">
         <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -484,176 +661,202 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1046,13 +1249,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0264F-57F0-4719-B380-98C6C9994393}">
-  <dimension ref="A10:XFD42"/>
+  <dimension ref="A6:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
@@ -1061,169 +1264,174 @@
     <col min="5" max="7" width="4.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="12" max="16384" width="22.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="68"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="13">
+      <c r="C12" s="50"/>
+      <c r="D12" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="12">
+      <c r="C13" s="52"/>
+      <c r="D13" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="14">
+      <c r="C14" s="54"/>
+      <c r="D14" s="9">
         <f>D12*30%</f>
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="51" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="23">
+      <c r="C17" s="50"/>
+      <c r="D17" s="10">
         <v>950</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="54">
+      <c r="I17" s="41"/>
+      <c r="J17" s="29">
         <f>sugestao</f>
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="24">
+      <c r="C18" s="52"/>
+      <c r="D18" s="11">
         <v>10</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="60"/>
-      <c r="J18" s="55">
+      <c r="I18" s="43"/>
+      <c r="J18" s="30">
         <f>qtd_anos</f>
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="25">
+      <c r="C19" s="52"/>
+      <c r="D19" s="12">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="56">
+      <c r="I19" s="43"/>
+      <c r="J19" s="31">
         <f>taxa_mensal</f>
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="27">
+      <c r="C20" s="45"/>
+      <c r="D20" s="13">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>231120.00190366359</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="27">
+      <c r="I20" s="45"/>
+      <c r="J20" s="13">
         <f>FV(taxa_mensal,qtd_anos*12,sugestao*-1)</f>
         <v>21895.579127715497</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30">
+      <c r="C21" s="33"/>
+      <c r="D21" s="14">
         <f>patrimonio*rendimento_carteira</f>
         <v>1386.7200114219816</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30">
+      <c r="I21" s="33"/>
+      <c r="J21" s="14">
         <f>patrimonio_projetado*rendimento_carteira</f>
         <v>131.37347476629299</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="16">
         <f>FV($D$19,$A24*12,$D$17*-1)</f>
         <v>25866.245932762955</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="17">
         <f>C24*rendimento_carteira</f>
         <v>155.19747559657773</v>
       </c>
@@ -1232,14 +1440,14 @@
       <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="19">
         <f>FV($D$19,$A25*12,$D$17*-1)</f>
         <v>79588.068298563259</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="20">
         <f>C25*rendimento_carteira</f>
         <v>477.52840979137954</v>
       </c>
@@ -1248,14 +1456,14 @@
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="19">
         <f>FV($D$19,$A26*12,$D$17*-1)</f>
         <v>231120.00190366359</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="20">
         <f>C26*rendimento_carteira</f>
         <v>1386.7200114219816</v>
       </c>
@@ -1264,14 +1472,14 @@
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="19">
         <f>FV($D$19,$A27*12,$D$17*-1)</f>
         <v>1068938.4800922265</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="20">
         <f>C27*rendimento_carteira</f>
         <v>6413.630880553359</v>
       </c>
@@ -1280,134 +1488,144 @@
       <c r="A28" s="1">
         <v>30</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="22">
         <f>FV($D$19,$A28*12,$D$17*-1)</f>
         <v>4106061.1722544786</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="23">
         <f>C28*rendimento_carteira</f>
         <v>24636.367033526873</v>
       </c>
     </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="C32" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="67"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="69">
         <f>aporte</f>
         <v>950</v>
       </c>
-    </row>
+      <c r="D33" s="70"/>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="59">
         <f>VLOOKUP($C$32&amp;"-"&amp;B36,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="60">
+        <f>C36*$C$33</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="59">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B37,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D36" s="43">
-        <f>C36*$C$33</f>
+      <c r="D37" s="60">
+        <f>C37*$C$33</f>
         <v>475</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="42">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B37,Planilha2!$A:$D,4,FALSE)</f>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="59">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B38,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D37" s="43">
-        <f t="shared" ref="D37:D40" si="0">C37*$C$33</f>
+      <c r="D38" s="60">
+        <f>C38*$C$33</f>
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="42">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B38,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D38" s="43">
-        <f t="shared" si="0"/>
-        <v>47.5</v>
-      </c>
-    </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="59">
         <f>VLOOKUP($C$32&amp;"-"&amp;B39,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D39" s="43">
-        <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="60">
+        <f>C39*$C$33</f>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="59">
         <f>VLOOKUP($C$32&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D40" s="43">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="D40" s="60">
+        <f>C40*$C$33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="59">
         <f>VLOOKUP($C$32&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="43">
+        <v>0</v>
+      </c>
+      <c r="D41" s="60">
         <f>C41*$C$33</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63">
         <f>SUM(D36:D41)</f>
         <v>950</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H16:J16"/>
@@ -1421,10 +1639,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{C03C491C-626A-4F87-9B63-60C5A463A128}">
@@ -1461,7 +1675,7 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1473,10 +1687,10 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="24">
         <v>0.3</v>
       </c>
     </row>
@@ -1488,10 +1702,10 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="24">
         <v>0.5</v>
       </c>
     </row>
@@ -1503,10 +1717,10 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="24">
         <v>0.1</v>
       </c>
     </row>
@@ -1518,10 +1732,10 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="24">
         <v>0.1</v>
       </c>
     </row>
@@ -1533,25 +1747,25 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="str">
+      <c r="A8" s="25" t="str">
         <f>B8&amp;"-"&amp;C8</f>
         <v>Conservador-Hotelarias</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1563,10 +1777,10 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>0.32</v>
       </c>
     </row>
@@ -1578,10 +1792,10 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>0.3</v>
       </c>
     </row>
@@ -1593,10 +1807,10 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>0.08</v>
       </c>
     </row>
@@ -1608,10 +1822,10 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -1623,25 +1837,25 @@
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="str">
+      <c r="A14" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Moderado-Hotelarias</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="28">
         <v>0.1</v>
       </c>
     </row>
@@ -1653,10 +1867,10 @@
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -1668,10 +1882,10 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -1683,10 +1897,10 @@
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>0.05</v>
       </c>
     </row>
@@ -1698,10 +1912,10 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>0.05</v>
       </c>
     </row>
@@ -1713,10 +1927,10 @@
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>0.2</v>
       </c>
     </row>
@@ -1728,10 +1942,10 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>0.1</v>
       </c>
     </row>
